--- a/SVU-Group-Projects-List.xlsx
+++ b/SVU-Group-Projects-List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majin\Desktop\FullStack-IBM-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5292D-9DF0-4879-959D-4288A00AE5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C4524-EF1D-42DD-B9E7-B3ED8B2D778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="168" windowWidth="22788" windowHeight="12072" xr2:uid="{7664E2EC-A617-4352-90EA-F756F0A68F25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7664E2EC-A617-4352-90EA-F756F0A68F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,6 +539,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA285C5-7886-4BFF-8C8D-FE230C534D72}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,22 +1338,22 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>128</v>
       </c>
     </row>
